--- a/tfaip/scripts/xlsxexperimenter/example.xlsx
+++ b/tfaip/scripts/xlsxexperimenter/example.xlsx
@@ -70,7 +70,7 @@
     <t xml:space="preserve">checkpoint_dir</t>
   </si>
   <si>
-    <t xml:space="preserve">train_batch_size</t>
+    <t xml:space="preserve">train.batch_size</t>
   </si>
   <si>
     <t xml:space="preserve">dataset</t>
@@ -222,10 +222,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="20.33"/>
@@ -237,7 +237,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="24.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="18.52"/>
@@ -338,10 +338,10 @@
         <v>1</v>
       </c>
       <c r="I4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" s="0" t="n">
         <v>10</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>500</v>
       </c>
       <c r="K4" s="0" t="str">
         <f aca="false">F4&amp;"_"&amp;G4</f>
@@ -387,10 +387,10 @@
         <v>1</v>
       </c>
       <c r="I5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" s="0" t="n">
         <v>10</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>500</v>
       </c>
       <c r="K5" s="0" t="str">
         <f aca="false">F5&amp;"_"&amp;G5</f>

--- a/tfaip/scripts/xlsxexperimenter/example.xlsx
+++ b/tfaip/scripts/xlsxexperimenter/example.xlsx
@@ -94,7 +94,7 @@
     <t xml:space="preserve">tfaip-train</t>
   </si>
   <si>
-    <t xml:space="preserve">tutorial</t>
+    <t xml:space="preserve">tutorial.full</t>
   </si>
   <si>
     <t xml:space="preserve">fashion_mnist</t>
@@ -222,10 +222,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
+      <selection pane="bottomLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="20.33"/>
@@ -345,7 +345,7 @@
       </c>
       <c r="K4" s="0" t="str">
         <f aca="false">F4&amp;"_"&amp;G4</f>
-        <v>tutorial_1</v>
+        <v>tutorial.full_1</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>5</v>
@@ -394,7 +394,7 @@
       </c>
       <c r="K5" s="0" t="str">
         <f aca="false">F5&amp;"_"&amp;G5</f>
-        <v>tutorial_2</v>
+        <v>tutorial.full_2</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>5</v>

--- a/tfaip/scripts/xlsxexperimenter/example.xlsx
+++ b/tfaip/scripts/xlsxexperimenter/example.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t xml:space="preserve">USER</t>
   </si>
@@ -46,19 +46,25 @@
     <t xml:space="preserve">PARAMS</t>
   </si>
   <si>
-    <t xml:space="preserve">trainer_params</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data_params</t>
-  </si>
-  <si>
-    <t xml:space="preserve">optimizer_params</t>
-  </si>
-  <si>
-    <t xml:space="preserve">learning_rate_params</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model_params</t>
+    <t xml:space="preserve">trainer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">train</t>
+  </si>
+  <si>
+    <t xml:space="preserve">val</t>
+  </si>
+  <si>
+    <t xml:space="preserve">train_val</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optimizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">learning_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model</t>
   </si>
   <si>
     <t xml:space="preserve">epochs</t>
@@ -67,19 +73,25 @@
     <t xml:space="preserve">samples_per_epoch</t>
   </si>
   <si>
-    <t xml:space="preserve">checkpoint_dir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">train.batch_size</t>
+    <t xml:space="preserve">output_dir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num_processes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limit</t>
   </si>
   <si>
     <t xml:space="preserve">dataset</t>
   </si>
   <si>
-    <t xml:space="preserve">optimizer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clip_grad</t>
+    <t xml:space="preserve">__cls__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">global_clip_norm</t>
   </si>
   <si>
     <t xml:space="preserve">lr</t>
@@ -94,19 +106,25 @@
     <t xml:space="preserve">tfaip-train</t>
   </si>
   <si>
-    <t xml:space="preserve">tutorial.full</t>
+    <t xml:space="preserve">examples.tutorial.full</t>
   </si>
   <si>
     <t xml:space="preserve">fashion_mnist</t>
   </si>
   <si>
-    <t xml:space="preserve">Adam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MLPLayers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConvLayers</t>
+    <t xml:space="preserve">RMSpropOptimizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLPGraphParams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mnist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AdamaxOptimizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConvGraphParams</t>
   </si>
 </sst>
 </file>
@@ -115,7 +133,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="&quot;BOOL&quot;e&quot;AN&quot;"/>
     <numFmt numFmtId="166" formatCode="0.00E+00"/>
   </numFmts>
   <fonts count="4">
@@ -217,15 +235,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC105"/>
+  <dimension ref="A1:AE105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="20.33"/>
@@ -233,18 +251,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="24.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="18.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="4.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="46.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1015" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="18.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="24.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="18.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="4.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="46.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1017" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -283,51 +300,63 @@
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="O2" s="0" t="s">
+        <v>11</v>
+      </c>
       <c r="P2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="0" t="s">
         <v>12</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I3" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E4" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G4" s="0" t="n">
         <f aca="false">G3+1</f>
@@ -338,45 +367,48 @@
         <v>1</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K4" s="0" t="str">
         <f aca="false">F4&amp;"_"&amp;G4</f>
-        <v>tutorial.full_1</v>
+        <v>examples.tutorial.full_1</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="R4" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="S4" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="R4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
+      <c r="T4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G5" s="0" t="n">
         <f aca="false">G4+1</f>
@@ -387,604 +419,607 @@
         <v>1</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K5" s="0" t="str">
         <f aca="false">F5&amp;"_"&amp;G5</f>
-        <v>tutorial.full_2</v>
+        <v>examples.tutorial.full_2</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="R5" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="S5" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="R5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
+      <c r="T5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
       <c r="H22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
       <c r="H23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
       <c r="H26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
       <c r="H27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H29" s="1"/>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
       <c r="H30" s="1"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
       <c r="H31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H32" s="1"/>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
       <c r="H34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
       <c r="H35" s="1"/>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H36" s="1"/>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2"/>
       <c r="H37" s="1"/>
-      <c r="AB37" s="1"/>
-      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H38" s="1"/>
-      <c r="AB38" s="1"/>
-      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2"/>
       <c r="H39" s="1"/>
-      <c r="AB39" s="1"/>
-      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H40" s="1"/>
-      <c r="AB40" s="1"/>
-      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2"/>
       <c r="H41" s="1"/>
-      <c r="AB41" s="1"/>
-      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H42" s="1"/>
-      <c r="AB42" s="1"/>
-      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2"/>
       <c r="H43" s="1"/>
-      <c r="AB43" s="1"/>
-      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H44" s="1"/>
-      <c r="AB44" s="1"/>
-      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2"/>
       <c r="H45" s="1"/>
-      <c r="AB45" s="1"/>
-      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H46" s="1"/>
-      <c r="AB46" s="1"/>
-      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2"/>
       <c r="H47" s="1"/>
-      <c r="AB47" s="1"/>
-      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H48" s="1"/>
-      <c r="AB48" s="1"/>
-      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2"/>
       <c r="H49" s="1"/>
-      <c r="AB49" s="1"/>
-      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H50" s="1"/>
-      <c r="AB50" s="1"/>
-      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2"/>
       <c r="H51" s="1"/>
-      <c r="AB51" s="1"/>
-      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H52" s="1"/>
-      <c r="AB52" s="1"/>
-      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2"/>
       <c r="H53" s="1"/>
-      <c r="AB53" s="1"/>
-      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H54" s="1"/>
-      <c r="AB54" s="1"/>
-      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2"/>
       <c r="H55" s="1"/>
-      <c r="AB55" s="1"/>
-      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H56" s="1"/>
-      <c r="AB56" s="1"/>
-      <c r="AC56" s="1"/>
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2"/>
       <c r="H57" s="1"/>
-      <c r="AB57" s="1"/>
-      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H58" s="1"/>
-      <c r="AB58" s="1"/>
-      <c r="AC58" s="1"/>
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2"/>
       <c r="H59" s="1"/>
-      <c r="AB59" s="1"/>
-      <c r="AC59" s="1"/>
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H60" s="1"/>
-      <c r="AB60" s="1"/>
-      <c r="AC60" s="1"/>
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2"/>
       <c r="H61" s="1"/>
-      <c r="AB61" s="1"/>
-      <c r="AC61" s="1"/>
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H62" s="1"/>
-      <c r="AB62" s="1"/>
-      <c r="AC62" s="1"/>
+      <c r="AD62" s="1"/>
+      <c r="AE62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2"/>
       <c r="H63" s="1"/>
-      <c r="AB63" s="1"/>
-      <c r="AC63" s="1"/>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H64" s="1"/>
-      <c r="AB64" s="1"/>
-      <c r="AC64" s="1"/>
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
       <c r="H65" s="1"/>
-      <c r="AB65" s="1"/>
-      <c r="AC65" s="1"/>
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H66" s="1"/>
-      <c r="AB66" s="1"/>
-      <c r="AC66" s="1"/>
+      <c r="AD66" s="1"/>
+      <c r="AE66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2"/>
       <c r="H67" s="1"/>
-      <c r="AB67" s="1"/>
-      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2"/>
       <c r="H68" s="1"/>
-      <c r="O68" s="3"/>
-      <c r="AB68" s="1"/>
-      <c r="AC68" s="1"/>
+      <c r="Q68" s="3"/>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2"/>
       <c r="H69" s="1"/>
-      <c r="O69" s="3"/>
-      <c r="AB69" s="1"/>
-      <c r="AC69" s="1"/>
+      <c r="Q69" s="3"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2"/>
       <c r="H70" s="1"/>
-      <c r="O70" s="3"/>
-      <c r="AB70" s="1"/>
-      <c r="AC70" s="1"/>
+      <c r="Q70" s="3"/>
+      <c r="AD70" s="1"/>
+      <c r="AE70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2"/>
       <c r="H71" s="1"/>
-      <c r="O71" s="3"/>
-      <c r="AB71" s="1"/>
-      <c r="AC71" s="1"/>
+      <c r="Q71" s="3"/>
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="1"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2"/>
       <c r="H72" s="1"/>
-      <c r="AB72" s="1"/>
-      <c r="AC72" s="1"/>
+      <c r="AD72" s="1"/>
+      <c r="AE72" s="1"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2"/>
       <c r="H73" s="1"/>
-      <c r="AB73" s="1"/>
-      <c r="AC73" s="1"/>
+      <c r="AD73" s="1"/>
+      <c r="AE73" s="1"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2"/>
       <c r="H74" s="1"/>
-      <c r="AB74" s="1"/>
-      <c r="AC74" s="1"/>
+      <c r="AD74" s="1"/>
+      <c r="AE74" s="1"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2"/>
       <c r="H75" s="1"/>
-      <c r="AB75" s="1"/>
-      <c r="AC75" s="1"/>
+      <c r="AD75" s="1"/>
+      <c r="AE75" s="1"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2"/>
       <c r="H76" s="1"/>
-      <c r="AB76" s="1"/>
-      <c r="AC76" s="1"/>
+      <c r="AD76" s="1"/>
+      <c r="AE76" s="1"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2"/>
       <c r="H77" s="1"/>
-      <c r="AB77" s="1"/>
-      <c r="AC77" s="1"/>
+      <c r="AD77" s="1"/>
+      <c r="AE77" s="1"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2"/>
       <c r="H78" s="1"/>
-      <c r="AB78" s="1"/>
-      <c r="AC78" s="1"/>
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="1"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2"/>
       <c r="H79" s="1"/>
-      <c r="AB79" s="1"/>
-      <c r="AC79" s="1"/>
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="1"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2"/>
       <c r="H80" s="1"/>
-      <c r="AB80" s="1"/>
-      <c r="AC80" s="1"/>
+      <c r="AD80" s="1"/>
+      <c r="AE80" s="1"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2"/>
       <c r="H81" s="1"/>
-      <c r="AB81" s="1"/>
-      <c r="AC81" s="1"/>
+      <c r="AD81" s="1"/>
+      <c r="AE81" s="1"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2"/>
       <c r="H82" s="1"/>
-      <c r="AB82" s="1"/>
-      <c r="AC82" s="1"/>
+      <c r="AD82" s="1"/>
+      <c r="AE82" s="1"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2"/>
       <c r="H83" s="1"/>
-      <c r="AB83" s="1"/>
-      <c r="AC83" s="1"/>
+      <c r="AD83" s="1"/>
+      <c r="AE83" s="1"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2"/>
       <c r="H84" s="1"/>
-      <c r="AB84" s="1"/>
-      <c r="AC84" s="1"/>
+      <c r="AD84" s="1"/>
+      <c r="AE84" s="1"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2"/>
       <c r="H85" s="1"/>
-      <c r="AB85" s="1"/>
-      <c r="AC85" s="1"/>
+      <c r="AD85" s="1"/>
+      <c r="AE85" s="1"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2"/>
       <c r="H86" s="1"/>
-      <c r="AB86" s="1"/>
-      <c r="AC86" s="1"/>
+      <c r="AD86" s="1"/>
+      <c r="AE86" s="1"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2"/>
       <c r="H87" s="1"/>
-      <c r="AB87" s="1"/>
-      <c r="AC87" s="1"/>
+      <c r="AD87" s="1"/>
+      <c r="AE87" s="1"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2"/>
       <c r="H88" s="1"/>
-      <c r="AB88" s="1"/>
-      <c r="AC88" s="1"/>
+      <c r="AD88" s="1"/>
+      <c r="AE88" s="1"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2"/>
       <c r="H89" s="1"/>
-      <c r="AB89" s="1"/>
-      <c r="AC89" s="1"/>
+      <c r="AD89" s="1"/>
+      <c r="AE89" s="1"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2"/>
       <c r="H90" s="1"/>
-      <c r="AB90" s="1"/>
-      <c r="AC90" s="1"/>
+      <c r="AD90" s="1"/>
+      <c r="AE90" s="1"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2"/>
       <c r="H91" s="1"/>
-      <c r="AB91" s="1"/>
-      <c r="AC91" s="1"/>
+      <c r="AD91" s="1"/>
+      <c r="AE91" s="1"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2"/>
       <c r="H92" s="1"/>
-      <c r="AB92" s="1"/>
-      <c r="AC92" s="1"/>
+      <c r="AD92" s="1"/>
+      <c r="AE92" s="1"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2"/>
       <c r="H93" s="1"/>
-      <c r="AB93" s="1"/>
-      <c r="AC93" s="1"/>
+      <c r="AD93" s="1"/>
+      <c r="AE93" s="1"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2"/>
       <c r="H94" s="1"/>
-      <c r="AB94" s="1"/>
-      <c r="AC94" s="1"/>
+      <c r="AD94" s="1"/>
+      <c r="AE94" s="1"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2"/>
       <c r="H95" s="1"/>
-      <c r="AB95" s="1"/>
-      <c r="AC95" s="1"/>
+      <c r="AD95" s="1"/>
+      <c r="AE95" s="1"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2"/>
       <c r="H96" s="1"/>
-      <c r="AB96" s="1"/>
-      <c r="AC96" s="1"/>
+      <c r="AD96" s="1"/>
+      <c r="AE96" s="1"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2"/>
       <c r="H97" s="1"/>
-      <c r="AB97" s="1"/>
-      <c r="AC97" s="1"/>
+      <c r="AD97" s="1"/>
+      <c r="AE97" s="1"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2"/>
       <c r="H98" s="1"/>
-      <c r="AB98" s="1"/>
-      <c r="AC98" s="1"/>
+      <c r="AD98" s="1"/>
+      <c r="AE98" s="1"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2"/>
       <c r="H99" s="1"/>
-      <c r="AB99" s="1"/>
-      <c r="AC99" s="1"/>
+      <c r="AD99" s="1"/>
+      <c r="AE99" s="1"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2"/>
       <c r="H100" s="1"/>
-      <c r="AB100" s="1"/>
-      <c r="AC100" s="1"/>
+      <c r="AD100" s="1"/>
+      <c r="AE100" s="1"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2"/>
       <c r="H101" s="1"/>
-      <c r="AB101" s="1"/>
-      <c r="AC101" s="1"/>
+      <c r="AD101" s="1"/>
+      <c r="AE101" s="1"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2"/>
       <c r="H102" s="1"/>
-      <c r="AB102" s="1"/>
-      <c r="AC102" s="1"/>
+      <c r="AD102" s="1"/>
+      <c r="AE102" s="1"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2"/>
       <c r="H103" s="1"/>
-      <c r="AB103" s="1"/>
-      <c r="AC103" s="1"/>
+      <c r="AD103" s="1"/>
+      <c r="AE103" s="1"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2"/>
       <c r="H104" s="1"/>
-      <c r="AB104" s="1"/>
-      <c r="AC104" s="1"/>
+      <c r="AD104" s="1"/>
+      <c r="AE104" s="1"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2"/>
       <c r="H105" s="1"/>
-      <c r="AB105" s="1"/>
-      <c r="AC105" s="1"/>
+      <c r="AD105" s="1"/>
+      <c r="AE105" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/tfaip/scripts/xlsxexperimenter/example.xlsx
+++ b/tfaip/scripts/xlsxexperimenter/example.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t xml:space="preserve">USER</t>
   </si>
@@ -58,6 +58,9 @@
     <t xml:space="preserve">train_val</t>
   </si>
   <si>
+    <t xml:space="preserve">default</t>
+  </si>
+  <si>
     <t xml:space="preserve">optimizer</t>
   </si>
   <si>
@@ -88,9 +91,6 @@
     <t xml:space="preserve">dataset</t>
   </si>
   <si>
-    <t xml:space="preserve">__cls__</t>
-  </si>
-  <si>
     <t xml:space="preserve">global_clip_norm</t>
   </si>
   <si>
@@ -109,6 +109,9 @@
     <t xml:space="preserve">examples.tutorial.full</t>
   </si>
   <si>
+    <t xml:space="preserve">examples.tutorial.full_1</t>
+  </si>
+  <si>
     <t xml:space="preserve">fashion_mnist</t>
   </si>
   <si>
@@ -116,6 +119,9 @@
   </si>
   <si>
     <t xml:space="preserve">MLPGraphParams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">examples.tutorial.full_2</t>
   </si>
   <si>
     <t xml:space="preserve">mnist</t>
@@ -206,11 +212,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -237,20 +243,22 @@
   </sheetPr>
   <dimension ref="A1:AE105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="44.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="2.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="23.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="18.8"/>
@@ -306,37 +314,40 @@
       <c r="P2" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="Q2" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="R2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="0" t="s">
         <v>23</v>
@@ -355,14 +366,13 @@
       <c r="E4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="0" t="n">
-        <f aca="false">G3+1</f>
         <v>1</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -372,9 +382,8 @@
       <c r="J4" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K4" s="0" t="str">
-        <f aca="false">F4&amp;"_"&amp;G4</f>
-        <v>examples.tutorial.full_1</v>
+      <c r="K4" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>2</v>
@@ -383,10 +392,10 @@
         <v>2</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="0" t="n">
         <v>0</v>
@@ -398,23 +407,22 @@
         <v>10</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="0" t="n">
-        <f aca="false">G4+1</f>
         <v>2</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -424,9 +432,8 @@
       <c r="J5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K5" s="0" t="str">
-        <f aca="false">F5&amp;"_"&amp;G5</f>
-        <v>examples.tutorial.full_2</v>
+      <c r="K5" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>1</v>
@@ -435,10 +442,10 @@
         <v>2</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q5" s="0" t="n">
         <v>0</v>
@@ -450,576 +457,576 @@
         <v>10</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
+      <c r="H6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
+      <c r="H7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
+      <c r="H9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
+      <c r="H10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
+      <c r="H11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
+      <c r="H13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
+      <c r="H14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
+      <c r="H15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
+      <c r="H16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
+      <c r="H17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
+      <c r="H18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
+      <c r="H19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
+      <c r="H20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
+      <c r="H21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2"/>
-      <c r="H22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
+      <c r="A22" s="1"/>
+      <c r="H22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
-      <c r="H23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
+      <c r="A23" s="1"/>
+      <c r="H23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
+      <c r="H24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
+      <c r="H25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2"/>
-      <c r="H26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
+      <c r="A26" s="1"/>
+      <c r="H26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2"/>
-      <c r="H27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
+      <c r="A27" s="1"/>
+      <c r="H27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H28" s="1"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
+      <c r="H28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H29" s="1"/>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
+      <c r="H29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2"/>
-      <c r="H30" s="1"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
+      <c r="A30" s="1"/>
+      <c r="H30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2"/>
-      <c r="H31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
+      <c r="A31" s="1"/>
+      <c r="H31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H32" s="1"/>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="1"/>
+      <c r="H32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H33" s="1"/>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
+      <c r="H33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2"/>
-      <c r="H34" s="1"/>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1"/>
+      <c r="A34" s="1"/>
+      <c r="H34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2"/>
-      <c r="H35" s="1"/>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="1"/>
+      <c r="A35" s="1"/>
+      <c r="H35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1"/>
+      <c r="H36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2"/>
-      <c r="H37" s="1"/>
-      <c r="AD37" s="1"/>
-      <c r="AE37" s="1"/>
+      <c r="A37" s="1"/>
+      <c r="H37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H38" s="1"/>
-      <c r="AD38" s="1"/>
-      <c r="AE38" s="1"/>
+      <c r="H38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2"/>
-      <c r="H39" s="1"/>
-      <c r="AD39" s="1"/>
-      <c r="AE39" s="1"/>
+      <c r="A39" s="1"/>
+      <c r="H39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H40" s="1"/>
-      <c r="AD40" s="1"/>
-      <c r="AE40" s="1"/>
+      <c r="H40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2"/>
-      <c r="H41" s="1"/>
-      <c r="AD41" s="1"/>
-      <c r="AE41" s="1"/>
+      <c r="A41" s="1"/>
+      <c r="H41" s="2"/>
+      <c r="AD41" s="2"/>
+      <c r="AE41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H42" s="1"/>
-      <c r="AD42" s="1"/>
-      <c r="AE42" s="1"/>
+      <c r="H42" s="2"/>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2"/>
-      <c r="H43" s="1"/>
-      <c r="AD43" s="1"/>
-      <c r="AE43" s="1"/>
+      <c r="A43" s="1"/>
+      <c r="H43" s="2"/>
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H44" s="1"/>
-      <c r="AD44" s="1"/>
-      <c r="AE44" s="1"/>
+      <c r="H44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2"/>
-      <c r="H45" s="1"/>
-      <c r="AD45" s="1"/>
-      <c r="AE45" s="1"/>
+      <c r="A45" s="1"/>
+      <c r="H45" s="2"/>
+      <c r="AD45" s="2"/>
+      <c r="AE45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H46" s="1"/>
-      <c r="AD46" s="1"/>
-      <c r="AE46" s="1"/>
+      <c r="H46" s="2"/>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2"/>
-      <c r="H47" s="1"/>
-      <c r="AD47" s="1"/>
-      <c r="AE47" s="1"/>
+      <c r="A47" s="1"/>
+      <c r="H47" s="2"/>
+      <c r="AD47" s="2"/>
+      <c r="AE47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H48" s="1"/>
-      <c r="AD48" s="1"/>
-      <c r="AE48" s="1"/>
+      <c r="H48" s="2"/>
+      <c r="AD48" s="2"/>
+      <c r="AE48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2"/>
-      <c r="H49" s="1"/>
-      <c r="AD49" s="1"/>
-      <c r="AE49" s="1"/>
+      <c r="A49" s="1"/>
+      <c r="H49" s="2"/>
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H50" s="1"/>
-      <c r="AD50" s="1"/>
-      <c r="AE50" s="1"/>
+      <c r="H50" s="2"/>
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2"/>
-      <c r="H51" s="1"/>
-      <c r="AD51" s="1"/>
-      <c r="AE51" s="1"/>
+      <c r="A51" s="1"/>
+      <c r="H51" s="2"/>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H52" s="1"/>
-      <c r="AD52" s="1"/>
-      <c r="AE52" s="1"/>
+      <c r="H52" s="2"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2"/>
-      <c r="H53" s="1"/>
-      <c r="AD53" s="1"/>
-      <c r="AE53" s="1"/>
+      <c r="A53" s="1"/>
+      <c r="H53" s="2"/>
+      <c r="AD53" s="2"/>
+      <c r="AE53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H54" s="1"/>
-      <c r="AD54" s="1"/>
-      <c r="AE54" s="1"/>
+      <c r="H54" s="2"/>
+      <c r="AD54" s="2"/>
+      <c r="AE54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2"/>
-      <c r="H55" s="1"/>
-      <c r="AD55" s="1"/>
-      <c r="AE55" s="1"/>
+      <c r="A55" s="1"/>
+      <c r="H55" s="2"/>
+      <c r="AD55" s="2"/>
+      <c r="AE55" s="2"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H56" s="1"/>
-      <c r="AD56" s="1"/>
-      <c r="AE56" s="1"/>
+      <c r="H56" s="2"/>
+      <c r="AD56" s="2"/>
+      <c r="AE56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2"/>
-      <c r="H57" s="1"/>
-      <c r="AD57" s="1"/>
-      <c r="AE57" s="1"/>
+      <c r="A57" s="1"/>
+      <c r="H57" s="2"/>
+      <c r="AD57" s="2"/>
+      <c r="AE57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H58" s="1"/>
-      <c r="AD58" s="1"/>
-      <c r="AE58" s="1"/>
+      <c r="H58" s="2"/>
+      <c r="AD58" s="2"/>
+      <c r="AE58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2"/>
-      <c r="H59" s="1"/>
-      <c r="AD59" s="1"/>
-      <c r="AE59" s="1"/>
+      <c r="A59" s="1"/>
+      <c r="H59" s="2"/>
+      <c r="AD59" s="2"/>
+      <c r="AE59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H60" s="1"/>
-      <c r="AD60" s="1"/>
-      <c r="AE60" s="1"/>
+      <c r="H60" s="2"/>
+      <c r="AD60" s="2"/>
+      <c r="AE60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2"/>
-      <c r="H61" s="1"/>
-      <c r="AD61" s="1"/>
-      <c r="AE61" s="1"/>
+      <c r="A61" s="1"/>
+      <c r="H61" s="2"/>
+      <c r="AD61" s="2"/>
+      <c r="AE61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H62" s="1"/>
-      <c r="AD62" s="1"/>
-      <c r="AE62" s="1"/>
+      <c r="H62" s="2"/>
+      <c r="AD62" s="2"/>
+      <c r="AE62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2"/>
-      <c r="H63" s="1"/>
-      <c r="AD63" s="1"/>
-      <c r="AE63" s="1"/>
+      <c r="A63" s="1"/>
+      <c r="H63" s="2"/>
+      <c r="AD63" s="2"/>
+      <c r="AE63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H64" s="1"/>
-      <c r="AD64" s="1"/>
-      <c r="AE64" s="1"/>
+      <c r="H64" s="2"/>
+      <c r="AD64" s="2"/>
+      <c r="AE64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2"/>
-      <c r="H65" s="1"/>
-      <c r="AD65" s="1"/>
-      <c r="AE65" s="1"/>
+      <c r="A65" s="1"/>
+      <c r="H65" s="2"/>
+      <c r="AD65" s="2"/>
+      <c r="AE65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H66" s="1"/>
-      <c r="AD66" s="1"/>
-      <c r="AE66" s="1"/>
+      <c r="H66" s="2"/>
+      <c r="AD66" s="2"/>
+      <c r="AE66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2"/>
-      <c r="H67" s="1"/>
-      <c r="AD67" s="1"/>
-      <c r="AE67" s="1"/>
+      <c r="A67" s="1"/>
+      <c r="H67" s="2"/>
+      <c r="AD67" s="2"/>
+      <c r="AE67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2"/>
-      <c r="H68" s="1"/>
+      <c r="A68" s="1"/>
+      <c r="H68" s="2"/>
       <c r="Q68" s="3"/>
-      <c r="AD68" s="1"/>
-      <c r="AE68" s="1"/>
+      <c r="AD68" s="2"/>
+      <c r="AE68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2"/>
-      <c r="H69" s="1"/>
+      <c r="A69" s="1"/>
+      <c r="H69" s="2"/>
       <c r="Q69" s="3"/>
-      <c r="AD69" s="1"/>
-      <c r="AE69" s="1"/>
+      <c r="AD69" s="2"/>
+      <c r="AE69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2"/>
-      <c r="H70" s="1"/>
+      <c r="A70" s="1"/>
+      <c r="H70" s="2"/>
       <c r="Q70" s="3"/>
-      <c r="AD70" s="1"/>
-      <c r="AE70" s="1"/>
+      <c r="AD70" s="2"/>
+      <c r="AE70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2"/>
-      <c r="H71" s="1"/>
+      <c r="A71" s="1"/>
+      <c r="H71" s="2"/>
       <c r="Q71" s="3"/>
-      <c r="AD71" s="1"/>
-      <c r="AE71" s="1"/>
+      <c r="AD71" s="2"/>
+      <c r="AE71" s="2"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2"/>
-      <c r="H72" s="1"/>
-      <c r="AD72" s="1"/>
-      <c r="AE72" s="1"/>
+      <c r="A72" s="1"/>
+      <c r="H72" s="2"/>
+      <c r="AD72" s="2"/>
+      <c r="AE72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2"/>
-      <c r="H73" s="1"/>
-      <c r="AD73" s="1"/>
-      <c r="AE73" s="1"/>
+      <c r="A73" s="1"/>
+      <c r="H73" s="2"/>
+      <c r="AD73" s="2"/>
+      <c r="AE73" s="2"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2"/>
-      <c r="H74" s="1"/>
-      <c r="AD74" s="1"/>
-      <c r="AE74" s="1"/>
+      <c r="A74" s="1"/>
+      <c r="H74" s="2"/>
+      <c r="AD74" s="2"/>
+      <c r="AE74" s="2"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2"/>
-      <c r="H75" s="1"/>
-      <c r="AD75" s="1"/>
-      <c r="AE75" s="1"/>
+      <c r="A75" s="1"/>
+      <c r="H75" s="2"/>
+      <c r="AD75" s="2"/>
+      <c r="AE75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2"/>
-      <c r="H76" s="1"/>
-      <c r="AD76" s="1"/>
-      <c r="AE76" s="1"/>
+      <c r="A76" s="1"/>
+      <c r="H76" s="2"/>
+      <c r="AD76" s="2"/>
+      <c r="AE76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2"/>
-      <c r="H77" s="1"/>
-      <c r="AD77" s="1"/>
-      <c r="AE77" s="1"/>
+      <c r="A77" s="1"/>
+      <c r="H77" s="2"/>
+      <c r="AD77" s="2"/>
+      <c r="AE77" s="2"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2"/>
-      <c r="H78" s="1"/>
-      <c r="AD78" s="1"/>
-      <c r="AE78" s="1"/>
+      <c r="A78" s="1"/>
+      <c r="H78" s="2"/>
+      <c r="AD78" s="2"/>
+      <c r="AE78" s="2"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2"/>
-      <c r="H79" s="1"/>
-      <c r="AD79" s="1"/>
-      <c r="AE79" s="1"/>
+      <c r="A79" s="1"/>
+      <c r="H79" s="2"/>
+      <c r="AD79" s="2"/>
+      <c r="AE79" s="2"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2"/>
-      <c r="H80" s="1"/>
-      <c r="AD80" s="1"/>
-      <c r="AE80" s="1"/>
+      <c r="A80" s="1"/>
+      <c r="H80" s="2"/>
+      <c r="AD80" s="2"/>
+      <c r="AE80" s="2"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2"/>
-      <c r="H81" s="1"/>
-      <c r="AD81" s="1"/>
-      <c r="AE81" s="1"/>
+      <c r="A81" s="1"/>
+      <c r="H81" s="2"/>
+      <c r="AD81" s="2"/>
+      <c r="AE81" s="2"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2"/>
-      <c r="H82" s="1"/>
-      <c r="AD82" s="1"/>
-      <c r="AE82" s="1"/>
+      <c r="A82" s="1"/>
+      <c r="H82" s="2"/>
+      <c r="AD82" s="2"/>
+      <c r="AE82" s="2"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2"/>
-      <c r="H83" s="1"/>
-      <c r="AD83" s="1"/>
-      <c r="AE83" s="1"/>
+      <c r="A83" s="1"/>
+      <c r="H83" s="2"/>
+      <c r="AD83" s="2"/>
+      <c r="AE83" s="2"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2"/>
-      <c r="H84" s="1"/>
-      <c r="AD84" s="1"/>
-      <c r="AE84" s="1"/>
+      <c r="A84" s="1"/>
+      <c r="H84" s="2"/>
+      <c r="AD84" s="2"/>
+      <c r="AE84" s="2"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2"/>
-      <c r="H85" s="1"/>
-      <c r="AD85" s="1"/>
-      <c r="AE85" s="1"/>
+      <c r="A85" s="1"/>
+      <c r="H85" s="2"/>
+      <c r="AD85" s="2"/>
+      <c r="AE85" s="2"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2"/>
-      <c r="H86" s="1"/>
-      <c r="AD86" s="1"/>
-      <c r="AE86" s="1"/>
+      <c r="A86" s="1"/>
+      <c r="H86" s="2"/>
+      <c r="AD86" s="2"/>
+      <c r="AE86" s="2"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2"/>
-      <c r="H87" s="1"/>
-      <c r="AD87" s="1"/>
-      <c r="AE87" s="1"/>
+      <c r="A87" s="1"/>
+      <c r="H87" s="2"/>
+      <c r="AD87" s="2"/>
+      <c r="AE87" s="2"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2"/>
-      <c r="H88" s="1"/>
-      <c r="AD88" s="1"/>
-      <c r="AE88" s="1"/>
+      <c r="A88" s="1"/>
+      <c r="H88" s="2"/>
+      <c r="AD88" s="2"/>
+      <c r="AE88" s="2"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2"/>
-      <c r="H89" s="1"/>
-      <c r="AD89" s="1"/>
-      <c r="AE89" s="1"/>
+      <c r="A89" s="1"/>
+      <c r="H89" s="2"/>
+      <c r="AD89" s="2"/>
+      <c r="AE89" s="2"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2"/>
-      <c r="H90" s="1"/>
-      <c r="AD90" s="1"/>
-      <c r="AE90" s="1"/>
+      <c r="A90" s="1"/>
+      <c r="H90" s="2"/>
+      <c r="AD90" s="2"/>
+      <c r="AE90" s="2"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2"/>
-      <c r="H91" s="1"/>
-      <c r="AD91" s="1"/>
-      <c r="AE91" s="1"/>
+      <c r="A91" s="1"/>
+      <c r="H91" s="2"/>
+      <c r="AD91" s="2"/>
+      <c r="AE91" s="2"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2"/>
-      <c r="H92" s="1"/>
-      <c r="AD92" s="1"/>
-      <c r="AE92" s="1"/>
+      <c r="A92" s="1"/>
+      <c r="H92" s="2"/>
+      <c r="AD92" s="2"/>
+      <c r="AE92" s="2"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2"/>
-      <c r="H93" s="1"/>
-      <c r="AD93" s="1"/>
-      <c r="AE93" s="1"/>
+      <c r="A93" s="1"/>
+      <c r="H93" s="2"/>
+      <c r="AD93" s="2"/>
+      <c r="AE93" s="2"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2"/>
-      <c r="H94" s="1"/>
-      <c r="AD94" s="1"/>
-      <c r="AE94" s="1"/>
+      <c r="A94" s="1"/>
+      <c r="H94" s="2"/>
+      <c r="AD94" s="2"/>
+      <c r="AE94" s="2"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2"/>
-      <c r="H95" s="1"/>
-      <c r="AD95" s="1"/>
-      <c r="AE95" s="1"/>
+      <c r="A95" s="1"/>
+      <c r="H95" s="2"/>
+      <c r="AD95" s="2"/>
+      <c r="AE95" s="2"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2"/>
-      <c r="H96" s="1"/>
-      <c r="AD96" s="1"/>
-      <c r="AE96" s="1"/>
+      <c r="A96" s="1"/>
+      <c r="H96" s="2"/>
+      <c r="AD96" s="2"/>
+      <c r="AE96" s="2"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2"/>
-      <c r="H97" s="1"/>
-      <c r="AD97" s="1"/>
-      <c r="AE97" s="1"/>
+      <c r="A97" s="1"/>
+      <c r="H97" s="2"/>
+      <c r="AD97" s="2"/>
+      <c r="AE97" s="2"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2"/>
-      <c r="H98" s="1"/>
-      <c r="AD98" s="1"/>
-      <c r="AE98" s="1"/>
+      <c r="A98" s="1"/>
+      <c r="H98" s="2"/>
+      <c r="AD98" s="2"/>
+      <c r="AE98" s="2"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2"/>
-      <c r="H99" s="1"/>
-      <c r="AD99" s="1"/>
-      <c r="AE99" s="1"/>
+      <c r="A99" s="1"/>
+      <c r="H99" s="2"/>
+      <c r="AD99" s="2"/>
+      <c r="AE99" s="2"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2"/>
-      <c r="H100" s="1"/>
-      <c r="AD100" s="1"/>
-      <c r="AE100" s="1"/>
+      <c r="A100" s="1"/>
+      <c r="H100" s="2"/>
+      <c r="AD100" s="2"/>
+      <c r="AE100" s="2"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2"/>
-      <c r="H101" s="1"/>
-      <c r="AD101" s="1"/>
-      <c r="AE101" s="1"/>
+      <c r="A101" s="1"/>
+      <c r="H101" s="2"/>
+      <c r="AD101" s="2"/>
+      <c r="AE101" s="2"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2"/>
-      <c r="H102" s="1"/>
-      <c r="AD102" s="1"/>
-      <c r="AE102" s="1"/>
+      <c r="A102" s="1"/>
+      <c r="H102" s="2"/>
+      <c r="AD102" s="2"/>
+      <c r="AE102" s="2"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2"/>
-      <c r="H103" s="1"/>
-      <c r="AD103" s="1"/>
-      <c r="AE103" s="1"/>
+      <c r="A103" s="1"/>
+      <c r="H103" s="2"/>
+      <c r="AD103" s="2"/>
+      <c r="AE103" s="2"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2"/>
-      <c r="H104" s="1"/>
-      <c r="AD104" s="1"/>
-      <c r="AE104" s="1"/>
+      <c r="A104" s="1"/>
+      <c r="H104" s="2"/>
+      <c r="AD104" s="2"/>
+      <c r="AE104" s="2"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2"/>
-      <c r="H105" s="1"/>
-      <c r="AD105" s="1"/>
-      <c r="AE105" s="1"/>
+      <c r="A105" s="1"/>
+      <c r="H105" s="2"/>
+      <c r="AD105" s="2"/>
+      <c r="AE105" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
